--- a/OUTPUT/240818rectangle1_output.xlsx
+++ b/OUTPUT/240818rectangle1_output.xlsx
@@ -446,14 +446,14 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4.144000768661499</v>
+        <v>146.0775434970856</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[(8, 6), (5, 7), (7, 10), (7, 12)]</t>
         </is>
       </c>
     </row>

--- a/OUTPUT/240818rectangle1_output.xlsx
+++ b/OUTPUT/240818rectangle1_output.xlsx
@@ -446,14 +446,14 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>146.0775434970856</v>
+        <v>450.8821747303009</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[(8, 6), (5, 7), (7, 10), (7, 12)]</t>
+          <t>[(4, 3), (9, 3), (7, 4), (3, 5), (1, 6), (8, 6), (11, 6), (1, 7), (3, 8), (3, 9), (12, 9), (2, 10), (6, 11), (9, 11), (4, 12), (6, 12), (10, 12)]</t>
         </is>
       </c>
     </row>

--- a/OUTPUT/240818rectangle1_output.xlsx
+++ b/OUTPUT/240818rectangle1_output.xlsx
@@ -446,14 +446,14 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>450.8821747303009</v>
+        <v>4.31800103187561</v>
       </c>
       <c r="B2" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[(4, 3), (9, 3), (7, 4), (3, 5), (1, 6), (8, 6), (11, 6), (1, 7), (3, 8), (3, 9), (12, 9), (2, 10), (6, 11), (9, 11), (4, 12), (6, 12), (10, 12)]</t>
+          <t>[(5, 3), (7, 4), (7, 5), (5, 6), (8, 6), (10, 6), (2, 7), (7, 7), (4, 9), (6, 10)]</t>
         </is>
       </c>
     </row>

--- a/OUTPUT/240818rectangle1_output.xlsx
+++ b/OUTPUT/240818rectangle1_output.xlsx
@@ -446,14 +446,14 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4.31800103187561</v>
+        <v>142.0159995555878</v>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[(5, 3), (7, 4), (7, 5), (5, 6), (8, 6), (10, 6), (2, 7), (7, 7), (4, 9), (6, 10)]</t>
+          <t>[(1, 2), (1, 10), (1, 13), (2, 9), (4, 3), (4, 8), (5, 2), (5, 12), (6, 8), (6, 9), (6, 11), (7, 3), (7, 6), (7, 9), (7, 11), (8, 1), (8, 4), (8, 6), (8, 9), (8, 12), (9, 2), (9, 6), (9, 9), (9, 11), (9, 12), (10, 0), (10, 4), (10, 7), (11, 2), (11, 9), (11, 13), (12, 0), (12, 3), (12, 4), (12, 5), (12, 6), (13, 2), (13, 9), (13, 12)]</t>
         </is>
       </c>
     </row>
